--- a/WebRoot/WEB-INF/config/excel/classify.xlsx
+++ b/WebRoot/WEB-INF/config/excel/classify.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>文章分类表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,11 +46,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏常用算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java服务器</t>
+    <t>Java服务器开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++服务器开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity3d开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏服务器设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中的算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -447,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,6 +472,39 @@
       </c>
       <c r="C5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
